--- a/com.Sita.Framework0/TestData/Data.xlsx
+++ b/com.Sita.Framework0/TestData/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="6330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Amenities" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
@@ -511,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/com.Sita.Framework0/TestData/Data.xlsx
+++ b/com.Sita.Framework0/TestData/Data.xlsx
@@ -14,12 +14,12 @@
     <sheet name="Amenities" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O20"/>
+  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>anushree@sita.in</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>919876543010</t>
+  </si>
+  <si>
+    <t>supervisor_login</t>
+  </si>
+  <si>
+    <t>Auth_login</t>
   </si>
 </sst>
 </file>
@@ -510,31 +516,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -545,6 +558,7 @@
     <hyperlink ref="B2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -552,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/com.Sita.Framework0/TestData/Data.xlsx
+++ b/com.Sita.Framework0/TestData/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="6780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="8970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Amenities" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:L27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>anushree@sita.in</t>
   </si>
@@ -69,27 +69,9 @@
     <t>admin@testsita.com</t>
   </si>
   <si>
-    <t>Role</t>
-  </si>
-  <si>
     <t xml:space="preserve">Name </t>
   </si>
   <si>
-    <t>Employee Code</t>
-  </si>
-  <si>
-    <t>Email Id</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Supervisor</t>
-  </si>
-  <si>
-    <t>FHE</t>
-  </si>
-  <si>
     <t>Vaibhav</t>
   </si>
   <si>
@@ -154,6 +136,15 @@
   </si>
   <si>
     <t>Auth_login</t>
+  </si>
+  <si>
+    <t>EmployeeCode</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
   </si>
 </sst>
 </file>
@@ -518,13 +509,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -536,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -564,135 +556,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/com.Sita.Framework0/TestData/Data.xlsx
+++ b/com.Sita.Framework0/TestData/Data.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="8970" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16695" windowHeight="6780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Inventory_data" sheetId="5" r:id="rId2"/>
-    <sheet name="LoginFHE" sheetId="2" r:id="rId3"/>
-    <sheet name="LoginBo" sheetId="4" r:id="rId4"/>
-    <sheet name="Amenities" sheetId="3" r:id="rId5"/>
+    <sheet name="Create_user_FHE" sheetId="5" r:id="rId2"/>
+    <sheet name="Create_user_supervisor" sheetId="6" r:id="rId3"/>
+    <sheet name="LoginFHE" sheetId="2" r:id="rId4"/>
+    <sheet name="LoginBo" sheetId="4" r:id="rId5"/>
+    <sheet name="Amenities" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>anushree@sita.in</t>
   </si>
@@ -72,66 +72,6 @@
     <t xml:space="preserve">Name </t>
   </si>
   <si>
-    <t>Vaibhav</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Karthik</t>
-  </si>
-  <si>
-    <t>Rajesh</t>
-  </si>
-  <si>
-    <t>Raman</t>
-  </si>
-  <si>
-    <t>EMP007</t>
-  </si>
-  <si>
-    <t>EMP008</t>
-  </si>
-  <si>
-    <t>EMP009</t>
-  </si>
-  <si>
-    <t>EMP010</t>
-  </si>
-  <si>
-    <t>EMP011</t>
-  </si>
-  <si>
-    <t>vaibhav@xploruat.com</t>
-  </si>
-  <si>
-    <t>rahul@xploruat.com</t>
-  </si>
-  <si>
-    <t>karthik@xploruat.com</t>
-  </si>
-  <si>
-    <t>rajesh@xploruat.com</t>
-  </si>
-  <si>
-    <t>raman@xploruat.com</t>
-  </si>
-  <si>
-    <t>919876543006</t>
-  </si>
-  <si>
-    <t>919876543007</t>
-  </si>
-  <si>
-    <t>919876543008</t>
-  </si>
-  <si>
-    <t>919876543009</t>
-  </si>
-  <si>
-    <t>919876543010</t>
-  </si>
-  <si>
     <t>supervisor_login</t>
   </si>
   <si>
@@ -145,6 +85,129 @@
   </si>
   <si>
     <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>919876543991</t>
+  </si>
+  <si>
+    <t>919876543992</t>
+  </si>
+  <si>
+    <t>919876543993</t>
+  </si>
+  <si>
+    <t>919876543994</t>
+  </si>
+  <si>
+    <t>919876543990</t>
+  </si>
+  <si>
+    <t>rajag@gmail.com</t>
+  </si>
+  <si>
+    <t>rahulg@gmail.com</t>
+  </si>
+  <si>
+    <t>deepakg@gmail.com</t>
+  </si>
+  <si>
+    <t>vireshg@gmail.com</t>
+  </si>
+  <si>
+    <t>annug@gmail.com</t>
+  </si>
+  <si>
+    <t>EMP680</t>
+  </si>
+  <si>
+    <t>EMP681</t>
+  </si>
+  <si>
+    <t>EMP682</t>
+  </si>
+  <si>
+    <t>EMP683</t>
+  </si>
+  <si>
+    <t>EMP684</t>
+  </si>
+  <si>
+    <t>rajag</t>
+  </si>
+  <si>
+    <t>rahulg</t>
+  </si>
+  <si>
+    <t>deepakg</t>
+  </si>
+  <si>
+    <t>vireshg</t>
+  </si>
+  <si>
+    <t>annug</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Animesh</t>
+  </si>
+  <si>
+    <t>Manish</t>
+  </si>
+  <si>
+    <t>Avik</t>
+  </si>
+  <si>
+    <t>sovan</t>
+  </si>
+  <si>
+    <t>Arya</t>
+  </si>
+  <si>
+    <t>EMP300</t>
+  </si>
+  <si>
+    <t>EMP301</t>
+  </si>
+  <si>
+    <t>EMP302</t>
+  </si>
+  <si>
+    <t>EMP303</t>
+  </si>
+  <si>
+    <t>EMP304</t>
+  </si>
+  <si>
+    <t>ani@gmail.com</t>
+  </si>
+  <si>
+    <t>manish@gmail.com</t>
+  </si>
+  <si>
+    <t>avik@gmail.com</t>
+  </si>
+  <si>
+    <t>sovan@gmail.com</t>
+  </si>
+  <si>
+    <t>arya@gmail.com</t>
+  </si>
+  <si>
+    <t>7001615899</t>
+  </si>
+  <si>
+    <t>7001615898</t>
+  </si>
+  <si>
+    <t>7001615897</t>
+  </si>
+  <si>
+    <t>7001615896</t>
+  </si>
+  <si>
+    <t>7001615895</t>
   </si>
 </sst>
 </file>
@@ -528,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -539,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,14 +621,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
@@ -576,83 +639,83 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -669,6 +732,119 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3:C6" r:id="rId2" display="ani@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -706,7 +882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -756,7 +932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>

--- a/com.Sita.Framework0/TestData/Data.xlsx
+++ b/com.Sita.Framework0/TestData/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16695" windowHeight="6780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15855" windowHeight="6780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Amenities" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 

--- a/com.Sita.Framework0/TestData/Data.xlsx
+++ b/com.Sita.Framework0/TestData/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15855" windowHeight="6780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16770" windowHeight="6780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -15,25 +15,15 @@
     <sheet name="Amenities" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
-    <t>anushree@sita.in</t>
-  </si>
-  <si>
     <t>Test@123</t>
   </si>
   <si>
-    <t>naveen@sita.in</t>
-  </si>
-  <si>
-    <t>asha@sita.in</t>
-  </si>
-  <si>
     <t>Z_Mumbai</t>
   </si>
   <si>
@@ -88,114 +78,9 @@
     <t>PhoneNumber</t>
   </si>
   <si>
-    <t>919876543991</t>
-  </si>
-  <si>
-    <t>919876543992</t>
-  </si>
-  <si>
-    <t>919876543993</t>
-  </si>
-  <si>
-    <t>919876543994</t>
-  </si>
-  <si>
-    <t>919876543990</t>
-  </si>
-  <si>
-    <t>rajag@gmail.com</t>
-  </si>
-  <si>
-    <t>rahulg@gmail.com</t>
-  </si>
-  <si>
-    <t>deepakg@gmail.com</t>
-  </si>
-  <si>
-    <t>vireshg@gmail.com</t>
-  </si>
-  <si>
-    <t>annug@gmail.com</t>
-  </si>
-  <si>
-    <t>EMP680</t>
-  </si>
-  <si>
-    <t>EMP681</t>
-  </si>
-  <si>
-    <t>EMP682</t>
-  </si>
-  <si>
-    <t>EMP683</t>
-  </si>
-  <si>
-    <t>EMP684</t>
-  </si>
-  <si>
-    <t>rajag</t>
-  </si>
-  <si>
-    <t>rahulg</t>
-  </si>
-  <si>
-    <t>deepakg</t>
-  </si>
-  <si>
-    <t>vireshg</t>
-  </si>
-  <si>
-    <t>annug</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Animesh</t>
-  </si>
-  <si>
-    <t>Manish</t>
-  </si>
-  <si>
-    <t>Avik</t>
-  </si>
-  <si>
-    <t>sovan</t>
-  </si>
-  <si>
-    <t>Arya</t>
-  </si>
-  <si>
-    <t>EMP300</t>
-  </si>
-  <si>
-    <t>EMP301</t>
-  </si>
-  <si>
-    <t>EMP302</t>
-  </si>
-  <si>
-    <t>EMP303</t>
-  </si>
-  <si>
-    <t>EMP304</t>
-  </si>
-  <si>
-    <t>ani@gmail.com</t>
-  </si>
-  <si>
-    <t>manish@gmail.com</t>
-  </si>
-  <si>
-    <t>avik@gmail.com</t>
-  </si>
-  <si>
-    <t>sovan@gmail.com</t>
-  </si>
-  <si>
-    <t>arya@gmail.com</t>
-  </si>
-  <si>
     <t>7001615899</t>
   </si>
   <si>
@@ -209,6 +94,120 @@
   </si>
   <si>
     <t>7001615895</t>
+  </si>
+  <si>
+    <t>ania@gmail.com</t>
+  </si>
+  <si>
+    <t>manisha@gmail.com</t>
+  </si>
+  <si>
+    <t>avika@gmail.com</t>
+  </si>
+  <si>
+    <t>sovana@gmail.com</t>
+  </si>
+  <si>
+    <t>aryaa@gmail.com</t>
+  </si>
+  <si>
+    <t>EMP305</t>
+  </si>
+  <si>
+    <t>EMP306</t>
+  </si>
+  <si>
+    <t>EMP307</t>
+  </si>
+  <si>
+    <t>EMP308</t>
+  </si>
+  <si>
+    <t>EMP309</t>
+  </si>
+  <si>
+    <t>AnimeshA</t>
+  </si>
+  <si>
+    <t>ManishA</t>
+  </si>
+  <si>
+    <t>AvikA</t>
+  </si>
+  <si>
+    <t>sovanA</t>
+  </si>
+  <si>
+    <t>AryaA</t>
+  </si>
+  <si>
+    <t>annuk@gmail.com</t>
+  </si>
+  <si>
+    <t>admin@sita.in</t>
+  </si>
+  <si>
+    <t>gagan@gmail.com</t>
+  </si>
+  <si>
+    <t>rajaKA</t>
+  </si>
+  <si>
+    <t>AnnuKA</t>
+  </si>
+  <si>
+    <t>deepakKA</t>
+  </si>
+  <si>
+    <t>vireshKA</t>
+  </si>
+  <si>
+    <t>annuKA</t>
+  </si>
+  <si>
+    <t>EMP61500</t>
+  </si>
+  <si>
+    <t>EMP61501</t>
+  </si>
+  <si>
+    <t>EMP61502</t>
+  </si>
+  <si>
+    <t>EMP61503</t>
+  </si>
+  <si>
+    <t>EMP61504</t>
+  </si>
+  <si>
+    <t>annuk1@gmail.com</t>
+  </si>
+  <si>
+    <t>vireshk1@gmail.com</t>
+  </si>
+  <si>
+    <t>deepakk1@gmail.com</t>
+  </si>
+  <si>
+    <t>rahulk1@gmail.com</t>
+  </si>
+  <si>
+    <t>rajak1@gmail.com</t>
+  </si>
+  <si>
+    <t>919576543995</t>
+  </si>
+  <si>
+    <t>919476543996</t>
+  </si>
+  <si>
+    <t>919376543997</t>
+  </si>
+  <si>
+    <t>919276543998</t>
+  </si>
+  <si>
+    <t>919176543999</t>
   </si>
 </sst>
 </file>
@@ -573,9 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -586,24 +583,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -622,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,86 +634,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -735,100 +732,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -858,18 +857,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -898,26 +897,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -949,78 +948,78 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/com.Sita.Framework0/TestData/Data.xlsx
+++ b/com.Sita.Framework0/TestData/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16770" windowHeight="6780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16770" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -57,18 +57,12 @@
     <t>Z_Bhubneshwar</t>
   </si>
   <si>
-    <t>admin@testsita.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Name </t>
   </si>
   <si>
     <t>supervisor_login</t>
   </si>
   <si>
-    <t>Auth_login</t>
-  </si>
-  <si>
     <t>EmployeeCode</t>
   </si>
   <si>
@@ -208,6 +202,12 @@
   </si>
   <si>
     <t>919176543999</t>
+  </si>
+  <si>
+    <t>Inventory_Login</t>
+  </si>
+  <si>
+    <t>inventoryadmin@sita.in</t>
   </si>
 </sst>
 </file>
@@ -570,38 +570,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -619,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -634,86 +639,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -746,86 +751,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +862,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -865,7 +870,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>

--- a/com.Sita.Framework0/TestData/Data.xlsx
+++ b/com.Sita.Framework0/TestData/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16770" windowHeight="6780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16770" windowHeight="6780" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>Test@123</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Z_Mumbai</t>
   </si>
   <si>
-    <t>bomumb@testsita.com</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>admin@sita.in</t>
   </si>
   <si>
-    <t>gagan@gmail.com</t>
-  </si>
-  <si>
     <t>rajaKA</t>
   </si>
   <si>
@@ -208,6 +202,12 @@
   </si>
   <si>
     <t>inventoryadmin@sita.in</t>
+  </si>
+  <si>
+    <t>mandeep@sita.in</t>
+  </si>
+  <si>
+    <t>mandeepm+bo_it_1@needleinnovision.com</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -585,24 +585,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -639,86 +639,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -751,86 +751,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -851,18 +851,18 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -891,18 +891,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -942,7 +942,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,72 +959,70 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/com.Sita.Framework0/TestData/Data.xlsx
+++ b/com.Sita.Framework0/TestData/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16770" windowHeight="6780" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16770" windowHeight="6780" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>Test@123</t>
   </si>
@@ -30,21 +30,12 @@
     <t>10</t>
   </si>
   <si>
-    <t>bopuri@testsita.com</t>
-  </si>
-  <si>
-    <t>bobhub@testsita.com</t>
-  </si>
-  <si>
     <t>Z_Puri</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
@@ -204,10 +195,13 @@
     <t>inventoryadmin@sita.in</t>
   </si>
   <si>
-    <t>mandeep@sita.in</t>
-  </si>
-  <si>
-    <t>mandeepm+bo_it_1@needleinnovision.com</t>
+    <t>ritufhe@sita.in</t>
+  </si>
+  <si>
+    <t>bomumbai@sita.in</t>
+  </si>
+  <si>
+    <t>bopuri@sita.in</t>
   </si>
 </sst>
 </file>
@@ -573,7 +567,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,24 +579,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -639,86 +633,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -751,86 +745,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -850,9 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -862,7 +854,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -870,7 +862,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -891,18 +883,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -910,19 +903,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -930,8 +919,6 @@
     <hyperlink ref="B1" r:id="rId2"/>
     <hyperlink ref="A2" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B3" r:id="rId5"/>
-    <hyperlink ref="A3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -941,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +964,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,22 +974,20 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1012,17 +997,17 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/com.Sita.Framework0/TestData/Data.xlsx
+++ b/com.Sita.Framework0/TestData/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>Test@123</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>bopuri@sita.in</t>
+  </si>
+  <si>
+    <t>valid Units</t>
+  </si>
+  <si>
+    <t>invalid Units</t>
+  </si>
+  <si>
+    <t>100000</t>
   </si>
 </sst>
 </file>
@@ -929,12 +938,13 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="4" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -942,22 +952,36 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
@@ -971,15 +995,24 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">

--- a/com.Sita.Framework0/TestData/Data.xlsx
+++ b/com.Sita.Framework0/TestData/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>Test@123</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>100000</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -935,10 +941,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +954,7 @@
     <col min="3" max="4" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -959,86 +965,90 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>

--- a/com.Sita.Framework0/TestData/Data.xlsx
+++ b/com.Sita.Framework0/TestData/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16770" windowHeight="6780" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16770" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>Test@123</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>rituparna+imperial@needleinnovision.com</t>
+  </si>
+  <si>
+    <t>POC_Login</t>
   </si>
 </sst>
 </file>
@@ -581,13 +587,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
@@ -615,7 +621,15 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -623,9 +637,11 @@
     <hyperlink ref="B1" r:id="rId2"/>
     <hyperlink ref="A2" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="A3" r:id="rId5"/>
+    <hyperlink ref="B3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -943,7 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/com.Sita.Framework0/TestData/Data.xlsx
+++ b/com.Sita.Framework0/TestData/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16770" windowHeight="6780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="6780" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>annuk@gmail.com</t>
   </si>
   <si>
-    <t>admin@sita.in</t>
-  </si>
-  <si>
     <t>rajaKA</t>
   </si>
   <si>
@@ -195,12 +192,6 @@
     <t>inventoryadmin@sita.in</t>
   </si>
   <si>
-    <t>ritufhe@sita.in</t>
-  </si>
-  <si>
-    <t>bomumbai@sita.in</t>
-  </si>
-  <si>
     <t>bopuri@sita.in</t>
   </si>
   <si>
@@ -219,10 +210,19 @@
     <t>1</t>
   </si>
   <si>
-    <t>rituparna+imperial@needleinnovision.com</t>
-  </si>
-  <si>
     <t>POC_Login</t>
+  </si>
+  <si>
+    <t>rituparna+hotel@needleinnovision.com</t>
+  </si>
+  <si>
+    <t>rakesh@gmail.com</t>
+  </si>
+  <si>
+    <t>ramesh@gmail.com</t>
+  </si>
+  <si>
+    <t>mandeepm+bomumb@needleinnovision.com</t>
   </si>
 </sst>
 </file>
@@ -587,20 +587,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -611,24 +611,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -678,72 +678,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -885,7 +887,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -914,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +928,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -934,7 +936,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -975,10 +977,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -986,27 +988,27 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1019,26 +1021,26 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
